--- a/municipal/ბიზნეს სექტორი/დამატებული ღირებულება/მცხეთა-მთიანეთი/მცხეთა.xlsx
+++ b/municipal/ბიზნეს სექტორი/დამატებული ღირებულება/მცხეთა-მთიანეთი/მცხეთა.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdanelia\Desktop\დამატებული ღირებულება\მცხეთა-მთიანეთი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\6. დამატებული ღირებულება\მცხეთა-მთიანეთი\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8BB890-F2A8-469C-98A1-0ED0906A7CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="4245"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="მცხეთა" sheetId="1" r:id="rId1"/>
@@ -38,9 +39,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="#\ ##0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -104,7 +105,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -123,6 +124,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -147,17 +157,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -438,18 +448,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" style="1" customWidth="1"/>
-    <col min="2" max="9" width="13" style="1" customWidth="1"/>
-    <col min="10" max="256" width="9.140625" style="1"/>
+    <col min="1" max="1" width="26.7109375" style="1" customWidth="1"/>
+    <col min="2" max="10" width="8.7109375" style="1" customWidth="1"/>
+    <col min="11" max="256" width="9.140625" style="1"/>
     <col min="257" max="257" width="27.5703125" style="1" customWidth="1"/>
     <col min="258" max="265" width="13" style="1" customWidth="1"/>
     <col min="266" max="512" width="9.140625" style="1"/>
@@ -641,25 +649,25 @@
     <col min="16138" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="4">
         <v>2014</v>
@@ -685,40 +693,43 @@
       <c r="I3" s="5">
         <v>2021</v>
       </c>
+      <c r="J3" s="5">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="10">
         <v>141.447792381</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="10">
         <v>175.51266467599999</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="10">
         <v>155.130266925</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="10">
         <v>164.5</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="10">
         <v>196.5</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="10">
         <v>236.9</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="10">
         <v>264.89999999999998</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="10">
         <v>343.4</v>
+      </c>
+      <c r="J4" s="10">
+        <v>489.8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/municipal/ბიზნეს სექტორი/დამატებული ღირებულება/მცხეთა-მთიანეთი/მცხეთა.xlsx
+++ b/municipal/ბიზნეს სექტორი/დამატებული ღირებულება/მცხეთა-მთიანეთი/მცხეთა.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\6. დამატებული ღირებულება\მცხეთა-მთიანეთი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\6. დამატებული ღირებულება\მცხეთა-მთიანეთი\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8BB890-F2A8-469C-98A1-0ED0906A7CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A11117-A950-48F3-8C01-321964CC7487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="მცხეთა" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#\ ##0.0"/>
+    <numFmt numFmtId="164" formatCode="#\ ##0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -166,7 +166,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -649,7 +649,7 @@
     <col min="16138" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -662,12 +662,12 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="4">
         <v>2014</v>
@@ -696,8 +696,11 @@
       <c r="J3" s="5">
         <v>2022</v>
       </c>
+      <c r="K3" s="5">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
@@ -727,6 +730,9 @@
       </c>
       <c r="J4" s="10">
         <v>489.8</v>
+      </c>
+      <c r="K4" s="10">
+        <v>642.20000000000005</v>
       </c>
     </row>
   </sheetData>
